--- a/data_year/zb/财政/国家财政收支总额及增长速度.xlsx
+++ b/data_year/zb/财政/国家财政收支总额及增长速度.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,400 +458,248 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15886.5</v>
+        <v>89874.16</v>
       </c>
       <c r="C2" t="n">
-        <v>20.4647977998</v>
+        <v>17.8</v>
       </c>
       <c r="D2" t="n">
-        <v>13395.23</v>
+        <v>83101.50999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>17.0494264283</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18902.58</v>
+        <v>109247.79</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9851760929</v>
+        <v>21.6</v>
       </c>
       <c r="D3" t="n">
-        <v>16386.04</v>
+        <v>103874.43</v>
       </c>
       <c r="E3" t="n">
-        <v>22.3274255089</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22053.15</v>
+        <v>125952.97</v>
       </c>
       <c r="C4" t="n">
-        <v>16.6674073063</v>
+        <v>15.3</v>
       </c>
       <c r="D4" t="n">
-        <v>18903.64</v>
+        <v>117253.52</v>
       </c>
       <c r="E4" t="n">
-        <v>15.3642979024</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24649.95</v>
+        <v>140212.1</v>
       </c>
       <c r="C5" t="n">
-        <v>11.7751885785</v>
+        <v>11.3</v>
       </c>
       <c r="D5" t="n">
-        <v>21715.25</v>
+        <v>129209.64</v>
       </c>
       <c r="E5" t="n">
-        <v>14.8733788836</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28486.89</v>
+        <v>151785.56</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>26396.47</v>
+        <v>140370.03</v>
       </c>
       <c r="E6" t="n">
-        <v>21.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33930.28</v>
+        <v>175877.77</v>
       </c>
       <c r="C7" t="n">
-        <v>19.1084039009</v>
+        <v>13.2</v>
       </c>
       <c r="D7" t="n">
-        <v>31649.29</v>
+        <v>152269.23</v>
       </c>
       <c r="E7" t="n">
-        <v>19.8997062865</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40422.73</v>
+        <v>187755.21</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1346785231</v>
+        <v>6.3</v>
       </c>
       <c r="D8" t="n">
-        <v>38760.2</v>
+        <v>159604.97</v>
       </c>
       <c r="E8" t="n">
-        <v>22.4678341915</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49781.35</v>
+        <v>203085.49</v>
       </c>
       <c r="C9" t="n">
-        <v>23.2</v>
+        <v>7.6</v>
       </c>
       <c r="D9" t="n">
-        <v>51321.78</v>
+        <v>172592.77</v>
       </c>
       <c r="E9" t="n">
-        <v>32.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62592.66</v>
+        <v>220904.13</v>
       </c>
       <c r="C10" t="n">
-        <v>25.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>61330.35</v>
+        <v>183359.84</v>
       </c>
       <c r="E10" t="n">
-        <v>19.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76299.92999999999</v>
+        <v>238858.37</v>
       </c>
       <c r="C11" t="n">
-        <v>21.8991651737</v>
+        <v>8.1</v>
       </c>
       <c r="D11" t="n">
-        <v>68518.3</v>
+        <v>190390.08</v>
       </c>
       <c r="E11" t="n">
-        <v>11.7200537744</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89874.16</v>
+        <v>245679.03</v>
       </c>
       <c r="C12" t="n">
-        <v>17.8</v>
+        <v>2.9</v>
       </c>
       <c r="D12" t="n">
-        <v>83101.50999999999</v>
+        <v>182913.88</v>
       </c>
       <c r="E12" t="n">
-        <v>21.3</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109247.79</v>
+        <v>245673</v>
       </c>
       <c r="C13" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103874.43</v>
+        <v>202554.64</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>125952.97</v>
+        <v>260609.17</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3</v>
+        <v>6.1</v>
       </c>
       <c r="D14" t="n">
-        <v>117253.52</v>
+        <v>203703.48</v>
       </c>
       <c r="E14" t="n">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>140212.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>129209.64</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>151785.56</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>140370.03</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>175877.77</v>
-      </c>
-      <c r="C17" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>152269.23</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>187755.21</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>159604.97</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>203085.49</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>172592.77</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>220904.13</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>183359.84</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>238858.37</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>190390.08</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>245679.03</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>182913.88</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-3.9</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
